--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPK_Automation_Scripts\LT_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69550CCE-C85E-478C-B8B8-98B2E3396E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09076D79-232C-423B-998D-7DE47C1EFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>FirstName</t>
   </si>
@@ -125,64 +125,31 @@
     <t>CourseDesignerName</t>
   </si>
   <si>
-    <t>CourseDesigner36539</t>
-  </si>
-  <si>
-    <t>LearningCourse1560</t>
-  </si>
-  <si>
     <t>LearningCourseName</t>
   </si>
   <si>
-    <t>CourseDesigner55151</t>
-  </si>
-  <si>
-    <t>CourseDesigner16316</t>
-  </si>
-  <si>
-    <t>CourseDesigner49443</t>
-  </si>
-  <si>
-    <t>LearningCourse91958</t>
-  </si>
-  <si>
-    <t>CourseDesigner42850</t>
-  </si>
-  <si>
-    <t>LearningCourse92699</t>
-  </si>
-  <si>
-    <t>CourseDesigner90178</t>
-  </si>
-  <si>
-    <t>CourseDesigner18292</t>
-  </si>
-  <si>
-    <t>LearningCourse76663</t>
-  </si>
-  <si>
-    <t>LearningCourse72272</t>
-  </si>
-  <si>
-    <t>LearningCourse27539</t>
-  </si>
-  <si>
-    <t>CourseDesigner89132</t>
-  </si>
-  <si>
-    <t>LearningCourse51606</t>
-  </si>
-  <si>
-    <t>CourseDesigner48347</t>
-  </si>
-  <si>
-    <t>LearningCourse53991</t>
-  </si>
-  <si>
-    <t>CourseDesigner49515</t>
-  </si>
-  <si>
-    <t>LearningCourse76350</t>
+    <t>CourseDesigner91070</t>
+  </si>
+  <si>
+    <t>LearningCourse43256</t>
+  </si>
+  <si>
+    <t>LearningCourse75620</t>
+  </si>
+  <si>
+    <t>LearningCourse6712</t>
+  </si>
+  <si>
+    <t>LearningCourse31250</t>
+  </si>
+  <si>
+    <t>LearningCourse30346</t>
+  </si>
+  <si>
+    <t>LearningCourse2517</t>
+  </si>
+  <si>
+    <t>LearningCourse66017</t>
   </si>
 </sst>
 </file>
@@ -252,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -324,6 +291,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -335,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,55 +371,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>
@@ -842,11 +790,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="36">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s" s="37">
-        <v>53</v>
+      <c r="K2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s" s="27">
+        <v>42</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -943,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -996,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPK_Automation_Scripts\LT_Automation\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavaliManthena\eclipse-workspace\Learning_tree_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69550CCE-C85E-478C-B8B8-98B2E3396E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A4A8E0-487C-45D9-92F9-EC2953A1A2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>FirstName</t>
   </si>
@@ -125,72 +125,23 @@
     <t>CourseDesignerName</t>
   </si>
   <si>
-    <t>CourseDesigner36539</t>
-  </si>
-  <si>
-    <t>LearningCourse1560</t>
-  </si>
-  <si>
     <t>LearningCourseName</t>
   </si>
   <si>
-    <t>CourseDesigner55151</t>
-  </si>
-  <si>
-    <t>CourseDesigner16316</t>
-  </si>
-  <si>
-    <t>CourseDesigner49443</t>
-  </si>
-  <si>
-    <t>LearningCourse91958</t>
-  </si>
-  <si>
-    <t>CourseDesigner42850</t>
-  </si>
-  <si>
-    <t>LearningCourse92699</t>
-  </si>
-  <si>
-    <t>CourseDesigner90178</t>
-  </si>
-  <si>
-    <t>CourseDesigner18292</t>
-  </si>
-  <si>
-    <t>LearningCourse76663</t>
-  </si>
-  <si>
-    <t>LearningCourse72272</t>
-  </si>
-  <si>
-    <t>LearningCourse27539</t>
-  </si>
-  <si>
-    <t>CourseDesigner89132</t>
-  </si>
-  <si>
-    <t>LearningCourse51606</t>
-  </si>
-  <si>
-    <t>CourseDesigner48347</t>
-  </si>
-  <si>
-    <t>LearningCourse53991</t>
-  </si>
-  <si>
     <t>CourseDesigner49515</t>
   </si>
   <si>
     <t>LearningCourse76350</t>
+  </si>
+  <si>
+    <t>LearningCourse87113</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +182,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -252,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -324,18 +280,22 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,57 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,28 +664,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="23.5546875"/>
-    <col min="3" max="3" customWidth="true" width="24.77734375"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5546875"/>
-    <col min="8" max="8" customWidth="true" width="31.5546875"/>
-    <col min="10" max="10" customWidth="true" width="19.77734375"/>
-    <col min="11" max="11" customWidth="true" width="19.33203125"/>
-    <col min="12" max="12" customWidth="true" width="23.6640625"/>
-    <col min="13" max="13" customWidth="true" width="20.109375"/>
-    <col min="14" max="14" customWidth="true" width="16.109375"/>
-    <col min="15" max="15" customWidth="true" width="15.0"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -807,11 +720,11 @@
         <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
@@ -842,18 +755,18 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="36">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s" s="37">
-        <v>53</v>
+      <c r="K2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -875,7 +788,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -897,7 +810,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -919,7 +832,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -941,27 +854,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0"/>
-    <col min="2" max="2" customWidth="true" width="20.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
-    <col min="4" max="4" customWidth="true" style="9" width="19.88671875"/>
-    <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
-    <col min="7" max="7" customWidth="true" width="11.5546875"/>
-    <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
-    <col min="11" max="11" customWidth="true" width="25.21875"/>
-    <col min="12" max="12" customWidth="true" width="20.77734375"/>
-    <col min="13" max="13" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -996,11 +909,11 @@
         <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +948,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1058,7 +971,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1081,7 +994,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1104,7 +1017,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1119,6 +1032,11 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
+    <row r="11" spans="1:13" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="L11" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavaliManthena\eclipse-workspace\Learning_tree_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -135,12 +135,16 @@
   </si>
   <si>
     <t>LearningCourse87113</t>
+  </si>
+  <si>
+    <t>LearningCourse32213</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,12 +294,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +368,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,19 +684,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="23.5703125"/>
+    <col min="3" max="3" customWidth="true" width="24.7109375"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.85546875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5703125"/>
+    <col min="8" max="8" customWidth="true" width="31.5703125"/>
+    <col min="10" max="10" customWidth="true" width="19.7109375"/>
+    <col min="11" max="11" customWidth="true" width="19.28515625"/>
+    <col min="12" max="12" customWidth="true" width="23.7109375"/>
+    <col min="13" max="13" customWidth="true" width="20.140625"/>
+    <col min="14" max="14" customWidth="true" width="16.140625"/>
+    <col min="15" max="15" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -758,8 +772,8 @@
       <c r="K2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>36</v>
+      <c r="L2" t="s" s="23">
+        <v>38</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -862,16 +876,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.0"/>
+    <col min="2" max="2" customWidth="true" width="20.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="4" max="4" customWidth="true" style="9" width="19.85546875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="23.7109375"/>
+    <col min="7" max="7" customWidth="true" width="11.5703125"/>
+    <col min="8" max="8" customWidth="true" style="1" width="38.42578125"/>
+    <col min="11" max="11" customWidth="true" width="25.28515625"/>
+    <col min="12" max="12" customWidth="true" width="20.7109375"/>
+    <col min="13" max="13" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavaliManthena\eclipse-workspace\Learning_tree_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5436A73F-711B-4B4F-AF30-B3327A1D8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57F4A8-8D33-4A62-84E4-32C9B342AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="2445" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="LMSProd" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -129,16 +128,16 @@
     <t>LearningCourseName</t>
   </si>
   <si>
-    <t>LearningCourse68375</t>
-  </si>
-  <si>
-    <t>CourseDesigner52638</t>
-  </si>
-  <si>
-    <t>LearningCourse79263</t>
-  </si>
-  <si>
-    <t>LearningCourse87783</t>
+    <t>CourseDesigner74085</t>
+  </si>
+  <si>
+    <t>LearningCourse93644</t>
+  </si>
+  <si>
+    <t>LearningCourse42230</t>
+  </si>
+  <si>
+    <t>LearningCourse66854</t>
   </si>
 </sst>
 </file>
@@ -146,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -319,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +386,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,7 +704,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +717,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="20.5703125"/>
     <col min="8" max="8" customWidth="true" width="31.5703125"/>
     <col min="10" max="10" customWidth="true" width="19.7109375"/>
-    <col min="11" max="11" customWidth="true" width="19.28515625"/>
+    <col min="11" max="11" customWidth="true" width="25.0"/>
     <col min="12" max="12" customWidth="true" width="23.7109375"/>
     <col min="13" max="13" customWidth="true" width="20.140625"/>
     <col min="14" max="14" customWidth="true" width="16.140625"/>
@@ -789,9 +795,9 @@
         <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s" s="25">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s" s="26">
         <v>38</v>
       </c>
       <c r="M2" s="9"/>
@@ -818,7 +824,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>FirstName</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>LearningCourse66854</t>
+  </si>
+  <si>
+    <t>LearningCourse26860</t>
+  </si>
+  <si>
+    <t>LearningCourse29949</t>
+  </si>
+  <si>
+    <t>LearningCourse67878</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +398,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -797,8 +815,8 @@
       <c r="K2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s" s="26">
-        <v>38</v>
+      <c r="L2" t="s" s="29">
+        <v>41</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>FirstName</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>LearningCourse67878</t>
+  </si>
+  <si>
+    <t>LearningCourse1765</t>
+  </si>
+  <si>
+    <t>LearningCourse28894</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +404,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -815,8 +827,8 @@
       <c r="K2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s" s="29">
-        <v>41</v>
+      <c r="L2" t="s" s="31">
+        <v>43</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>FirstName</t>
   </si>
@@ -207,6 +207,162 @@
   </si>
   <si>
     <t>LearningCourse68375</t>
+  </si>
+  <si>
+    <t>CourseDesigner28585</t>
+  </si>
+  <si>
+    <t>LearningCourse78086</t>
+  </si>
+  <si>
+    <t>LearningCourse94485</t>
+  </si>
+  <si>
+    <t>LearningCourse20218</t>
+  </si>
+  <si>
+    <t>LearningCourse91080</t>
+  </si>
+  <si>
+    <t>LearningCourse37730</t>
+  </si>
+  <si>
+    <t>LearningCourse54521</t>
+  </si>
+  <si>
+    <t>LearningCourse31088</t>
+  </si>
+  <si>
+    <t>CourseDesigner74085</t>
+  </si>
+  <si>
+    <t>CourseDesigner53928</t>
+  </si>
+  <si>
+    <t>LearningCourse15901</t>
+  </si>
+  <si>
+    <t>LearningCourse90690</t>
+  </si>
+  <si>
+    <t>LearningCourse94765</t>
+  </si>
+  <si>
+    <t>LearningCourse93887</t>
+  </si>
+  <si>
+    <t>LearningCourse83527</t>
+  </si>
+  <si>
+    <t>LearningCourse38715</t>
+  </si>
+  <si>
+    <t>LearningCourse6601</t>
+  </si>
+  <si>
+    <t>LearningCourse6796</t>
+  </si>
+  <si>
+    <t>LearningCourse25056</t>
+  </si>
+  <si>
+    <t>LearningCourse12273</t>
+  </si>
+  <si>
+    <t>CourseDesigner24460</t>
+  </si>
+  <si>
+    <t>LearningCourse52945</t>
+  </si>
+  <si>
+    <t>LearningCourse89094</t>
+  </si>
+  <si>
+    <t>CourseDesigner58541</t>
+  </si>
+  <si>
+    <t>LearningCourse99575</t>
+  </si>
+  <si>
+    <t>LearningCourse55246</t>
+  </si>
+  <si>
+    <t>LearningCourse45946</t>
+  </si>
+  <si>
+    <t>LearningCourse77515</t>
+  </si>
+  <si>
+    <t>LearningCourse89776</t>
+  </si>
+  <si>
+    <t>LearningCourse69948</t>
+  </si>
+  <si>
+    <t>LearningCourse24970</t>
+  </si>
+  <si>
+    <t>LearningCourse45297</t>
+  </si>
+  <si>
+    <t>LearningCourse56646</t>
+  </si>
+  <si>
+    <t>LearningCourse15099</t>
+  </si>
+  <si>
+    <t>LearningCourse34875</t>
+  </si>
+  <si>
+    <t>LearningCourse23083</t>
+  </si>
+  <si>
+    <t>LearningCourse41257</t>
+  </si>
+  <si>
+    <t>LearningCourse72502</t>
+  </si>
+  <si>
+    <t>LearningCourse60127</t>
+  </si>
+  <si>
+    <t>LearningCourse55148</t>
+  </si>
+  <si>
+    <t>LearningCourse94671</t>
+  </si>
+  <si>
+    <t>LearningCourse43711</t>
+  </si>
+  <si>
+    <t>LearningCourse23534</t>
+  </si>
+  <si>
+    <t>CourseDesigner66366</t>
+  </si>
+  <si>
+    <t>LearningCourse17407</t>
+  </si>
+  <si>
+    <t>CourseDesigner92640</t>
+  </si>
+  <si>
+    <t>LearningCourse96364</t>
+  </si>
+  <si>
+    <t>CourseDesigner16229</t>
+  </si>
+  <si>
+    <t>LearningCourse44276</t>
+  </si>
+  <si>
+    <t>LearningCourse68983</t>
+  </si>
+  <si>
+    <t>CourseDesigner70039</t>
+  </si>
+  <si>
+    <t>LearningCourse45781</t>
   </si>
 </sst>
 </file>
@@ -370,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,6 +586,162 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -904,11 +1216,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="28">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s" s="46">
-        <v>61</v>
+      <c r="K2" t="s" s="97">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s" s="98">
+        <v>113</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>FirstName</t>
   </si>
@@ -390,6 +390,24 @@
   </si>
   <si>
     <t>LearningCourse27367</t>
+  </si>
+  <si>
+    <t>CourseDesigner74088</t>
+  </si>
+  <si>
+    <t>CourseDesigner63758</t>
+  </si>
+  <si>
+    <t>LearningCourse9719</t>
+  </si>
+  <si>
+    <t>CourseDesigner38912</t>
+  </si>
+  <si>
+    <t>CourseDesigner55552</t>
+  </si>
+  <si>
+    <t>LearningCourse35779</t>
   </si>
 </sst>
 </file>
@@ -553,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +631,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1270,11 +1306,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="104">
-        <v>119</v>
-      </c>
-      <c r="L2" t="s" s="107">
-        <v>122</v>
+      <c r="K2" t="s" s="112">
+        <v>127</v>
+      </c>
+      <c r="L2" t="s" s="113">
+        <v>128</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
   <si>
     <t>FirstName</t>
   </si>
@@ -408,6 +408,27 @@
   </si>
   <si>
     <t>LearningCourse35779</t>
+  </si>
+  <si>
+    <t>CourseDesigner99554</t>
+  </si>
+  <si>
+    <t>CourseDesigner38480</t>
+  </si>
+  <si>
+    <t>CourseDesigner59539</t>
+  </si>
+  <si>
+    <t>CourseDesigner47637</t>
+  </si>
+  <si>
+    <t>CourseDesigner26610</t>
+  </si>
+  <si>
+    <t>CourseDesigner95351</t>
+  </si>
+  <si>
+    <t>CourseDesigner58278</t>
   </si>
 </sst>
 </file>
@@ -571,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +652,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1306,8 +1348,8 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="112">
-        <v>127</v>
+      <c r="K2" t="s" s="120">
+        <v>135</v>
       </c>
       <c r="L2" t="s" s="113">
         <v>128</v>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
   <si>
     <t>FirstName</t>
   </si>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t>CourseDesigner58278</t>
+  </si>
+  <si>
+    <t>CourseDesigner57274</t>
+  </si>
+  <si>
+    <t>LearningCourse97124</t>
+  </si>
+  <si>
+    <t>CourseDesigner7955</t>
+  </si>
+  <si>
+    <t>CourseDesigner67184</t>
+  </si>
+  <si>
+    <t>LearningCourse47483</t>
+  </si>
+  <si>
+    <t>CourseDesigner6238</t>
+  </si>
+  <si>
+    <t>LearningCourse61208</t>
   </si>
 </sst>
 </file>
@@ -592,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,6 +673,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1348,11 +1390,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="120">
-        <v>135</v>
-      </c>
-      <c r="L2" t="s" s="113">
-        <v>128</v>
+      <c r="K2" t="s" s="126">
+        <v>141</v>
+      </c>
+      <c r="L2" t="s" s="127">
+        <v>142</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
   <si>
     <t>FirstName</t>
   </si>
@@ -450,6 +450,27 @@
   </si>
   <si>
     <t>LearningCourse61208</t>
+  </si>
+  <si>
+    <t>CourseDesigner8810</t>
+  </si>
+  <si>
+    <t>LearningCourse53345</t>
+  </si>
+  <si>
+    <t>CourseDesigner85180</t>
+  </si>
+  <si>
+    <t>LearningCourse32445</t>
+  </si>
+  <si>
+    <t>CourseDesigner94437</t>
+  </si>
+  <si>
+    <t>CourseDesigner20457</t>
+  </si>
+  <si>
+    <t>CourseDesigner61777</t>
   </si>
 </sst>
 </file>
@@ -613,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,6 +694,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1390,11 +1432,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="126">
-        <v>141</v>
-      </c>
-      <c r="L2" t="s" s="127">
-        <v>142</v>
+      <c r="K2" t="s" s="134">
+        <v>149</v>
+      </c>
+      <c r="L2" t="s" s="131">
+        <v>146</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>FirstName</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>CourseDesigner61777</t>
+  </si>
+  <si>
+    <t>CourseDesigner99126</t>
+  </si>
+  <si>
+    <t>LearningCourse3395</t>
+  </si>
+  <si>
+    <t>CourseDesigner40081</t>
+  </si>
+  <si>
+    <t>LearningCourse39214</t>
   </si>
 </sst>
 </file>
@@ -634,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +706,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1432,11 +1456,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="134">
-        <v>149</v>
-      </c>
-      <c r="L2" t="s" s="131">
-        <v>146</v>
+      <c r="K2" t="s" s="137">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s" s="138">
+        <v>153</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
   <si>
     <t>FirstName</t>
   </si>
@@ -483,6 +483,57 @@
   </si>
   <si>
     <t>LearningCourse39214</t>
+  </si>
+  <si>
+    <t>CourseDesigner55141</t>
+  </si>
+  <si>
+    <t>LearningCourse93602</t>
+  </si>
+  <si>
+    <t>CourseDesigner26777</t>
+  </si>
+  <si>
+    <t>CourseDesigner10798</t>
+  </si>
+  <si>
+    <t>LearningCourse31587</t>
+  </si>
+  <si>
+    <t>CourseDesigner23581</t>
+  </si>
+  <si>
+    <t>LearningCourse61082</t>
+  </si>
+  <si>
+    <t>CourseDesigner15855</t>
+  </si>
+  <si>
+    <t>LearningCourse93749</t>
+  </si>
+  <si>
+    <t>CourseDesigner4113</t>
+  </si>
+  <si>
+    <t>LearningCourse45635</t>
+  </si>
+  <si>
+    <t>CourseDesigner23657</t>
+  </si>
+  <si>
+    <t>LearningCourse28542</t>
+  </si>
+  <si>
+    <t>CourseDesigner68391</t>
+  </si>
+  <si>
+    <t>CourseDesigner72468</t>
+  </si>
+  <si>
+    <t>CourseDesigner54915</t>
+  </si>
+  <si>
+    <t>LearningCourse60455</t>
   </si>
 </sst>
 </file>
@@ -646,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,6 +757,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1456,11 +1558,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="137">
-        <v>152</v>
-      </c>
-      <c r="L2" t="s" s="138">
-        <v>153</v>
+      <c r="K2" t="s" s="154">
+        <v>169</v>
+      </c>
+      <c r="L2" t="s" s="155">
+        <v>170</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
   <si>
     <t>FirstName</t>
   </si>
@@ -534,6 +534,63 @@
   </si>
   <si>
     <t>LearningCourse60455</t>
+  </si>
+  <si>
+    <t>CourseDesigner20731</t>
+  </si>
+  <si>
+    <t>LearningCourse46783</t>
+  </si>
+  <si>
+    <t>CourseDesigner81896</t>
+  </si>
+  <si>
+    <t>LearningCourse21319</t>
+  </si>
+  <si>
+    <t>CourseDesigner46057</t>
+  </si>
+  <si>
+    <t>LearningCourse6336</t>
+  </si>
+  <si>
+    <t>CourseDesigner70279</t>
+  </si>
+  <si>
+    <t>LearningCourse44064</t>
+  </si>
+  <si>
+    <t>CourseDesigner99058</t>
+  </si>
+  <si>
+    <t>LearningCourse85420</t>
+  </si>
+  <si>
+    <t>CourseDesigner1667</t>
+  </si>
+  <si>
+    <t>CourseDesigner86549</t>
+  </si>
+  <si>
+    <t>CourseDesigner42635</t>
+  </si>
+  <si>
+    <t>LearningCourse79234</t>
+  </si>
+  <si>
+    <t>CourseDesigner30475</t>
+  </si>
+  <si>
+    <t>LearningCourse18772</t>
+  </si>
+  <si>
+    <t>CourseDesigner86993</t>
+  </si>
+  <si>
+    <t>CourseDesigner65610</t>
+  </si>
+  <si>
+    <t>LearningCourse88742</t>
   </si>
 </sst>
 </file>
@@ -697,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +814,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1558,11 +1672,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="154">
-        <v>169</v>
-      </c>
-      <c r="L2" t="s" s="155">
-        <v>170</v>
+      <c r="K2" t="s" s="173">
+        <v>188</v>
+      </c>
+      <c r="L2" t="s" s="174">
+        <v>189</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="192">
   <si>
     <t>FirstName</t>
   </si>
@@ -591,6 +591,12 @@
   </si>
   <si>
     <t>LearningCourse88742</t>
+  </si>
+  <si>
+    <t>CourseDesigner32802</t>
+  </si>
+  <si>
+    <t>LearningCourse39270</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -814,6 +820,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1672,11 +1684,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="173">
-        <v>188</v>
-      </c>
-      <c r="L2" t="s" s="174">
-        <v>189</v>
+      <c r="K2" t="s" s="175">
+        <v>190</v>
+      </c>
+      <c r="L2" t="s" s="176">
+        <v>191</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
   <si>
     <t>FirstName</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>LearningCourse39270</t>
+  </si>
+  <si>
+    <t>LearningCourse80642</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,6 +823,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1687,8 +1693,8 @@
       <c r="K2" t="s" s="175">
         <v>190</v>
       </c>
-      <c r="L2" t="s" s="176">
-        <v>191</v>
+      <c r="L2" t="s" s="177">
+        <v>192</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="194">
   <si>
     <t>FirstName</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>LearningCourse80642</t>
+  </si>
+  <si>
+    <t>LearningCourse24490</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1693,8 +1699,8 @@
       <c r="K2" t="s" s="175">
         <v>190</v>
       </c>
-      <c r="L2" t="s" s="177">
-        <v>192</v>
+      <c r="L2" t="s" s="178">
+        <v>193</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPK_Automation_Scripts\LT_Automation\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09076D79-232C-423B-998D-7DE47C1EFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC637C9-2CD1-4E2A-B2DD-3BFE627796B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>FirstName</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Automation Test</t>
   </si>
   <si>
-    <t>Grade 1</t>
-  </si>
-  <si>
     <t>automation</t>
   </si>
   <si>
@@ -128,481 +125,91 @@
     <t>LearningCourseName</t>
   </si>
   <si>
-    <t>CourseDesigner91070</t>
-  </si>
-  <si>
-    <t>LearningCourse43256</t>
-  </si>
-  <si>
-    <t>LearningCourse75620</t>
-  </si>
-  <si>
-    <t>LearningCourse6712</t>
-  </si>
-  <si>
-    <t>LearningCourse31250</t>
-  </si>
-  <si>
-    <t>LearningCourse30346</t>
-  </si>
-  <si>
-    <t>LearningCourse2517</t>
-  </si>
-  <si>
-    <t>LearningCourse66017</t>
-  </si>
-  <si>
-    <t>CourseDesigner81858</t>
-  </si>
-  <si>
-    <t>LearningCourse32044</t>
-  </si>
-  <si>
-    <t>LearningCourse71166</t>
-  </si>
-  <si>
-    <t>LearningCourse49298</t>
-  </si>
-  <si>
-    <t>LearningCourse24848</t>
-  </si>
-  <si>
-    <t>LearningCourse32975</t>
-  </si>
-  <si>
-    <t>LearningCourse23417</t>
-  </si>
-  <si>
-    <t>LearningCourse50317</t>
-  </si>
-  <si>
-    <t>LearningCourse23822</t>
-  </si>
-  <si>
-    <t>LearningCourse6759</t>
-  </si>
-  <si>
-    <t>LearningCourse60251</t>
-  </si>
-  <si>
-    <t>LearningCourse31684</t>
-  </si>
-  <si>
-    <t>LearningCourse8793</t>
-  </si>
-  <si>
-    <t>LearningCourse56859</t>
-  </si>
-  <si>
-    <t>LearningCourse26225</t>
-  </si>
-  <si>
-    <t>LearningCourse80401</t>
-  </si>
-  <si>
-    <t>LearningCourse35227</t>
-  </si>
-  <si>
-    <t>LearningCourse44417</t>
-  </si>
-  <si>
-    <t>LearningCourse68375</t>
-  </si>
-  <si>
-    <t>CourseDesigner28585</t>
-  </si>
-  <si>
-    <t>LearningCourse78086</t>
-  </si>
-  <si>
-    <t>LearningCourse94485</t>
-  </si>
-  <si>
-    <t>LearningCourse20218</t>
-  </si>
-  <si>
-    <t>LearningCourse91080</t>
-  </si>
-  <si>
-    <t>LearningCourse37730</t>
-  </si>
-  <si>
-    <t>LearningCourse54521</t>
-  </si>
-  <si>
-    <t>LearningCourse31088</t>
-  </si>
-  <si>
-    <t>CourseDesigner74085</t>
-  </si>
-  <si>
-    <t>CourseDesigner53928</t>
-  </si>
-  <si>
-    <t>LearningCourse15901</t>
-  </si>
-  <si>
-    <t>LearningCourse90690</t>
-  </si>
-  <si>
-    <t>LearningCourse94765</t>
-  </si>
-  <si>
-    <t>LearningCourse93887</t>
-  </si>
-  <si>
-    <t>LearningCourse83527</t>
-  </si>
-  <si>
-    <t>LearningCourse38715</t>
-  </si>
-  <si>
-    <t>LearningCourse6601</t>
-  </si>
-  <si>
-    <t>LearningCourse6796</t>
-  </si>
-  <si>
-    <t>LearningCourse25056</t>
-  </si>
-  <si>
-    <t>LearningCourse12273</t>
-  </si>
-  <si>
-    <t>CourseDesigner24460</t>
-  </si>
-  <si>
-    <t>LearningCourse52945</t>
-  </si>
-  <si>
-    <t>LearningCourse89094</t>
-  </si>
-  <si>
-    <t>CourseDesigner58541</t>
-  </si>
-  <si>
-    <t>LearningCourse99575</t>
-  </si>
-  <si>
-    <t>LearningCourse55246</t>
-  </si>
-  <si>
-    <t>LearningCourse45946</t>
-  </si>
-  <si>
-    <t>LearningCourse77515</t>
-  </si>
-  <si>
-    <t>LearningCourse89776</t>
-  </si>
-  <si>
-    <t>LearningCourse69948</t>
-  </si>
-  <si>
-    <t>LearningCourse24970</t>
-  </si>
-  <si>
-    <t>LearningCourse45297</t>
-  </si>
-  <si>
-    <t>LearningCourse56646</t>
-  </si>
-  <si>
-    <t>LearningCourse15099</t>
-  </si>
-  <si>
-    <t>LearningCourse34875</t>
-  </si>
-  <si>
-    <t>LearningCourse23083</t>
-  </si>
-  <si>
-    <t>LearningCourse41257</t>
-  </si>
-  <si>
-    <t>LearningCourse72502</t>
-  </si>
-  <si>
-    <t>LearningCourse60127</t>
-  </si>
-  <si>
-    <t>LearningCourse55148</t>
-  </si>
-  <si>
-    <t>LearningCourse94671</t>
-  </si>
-  <si>
-    <t>LearningCourse43711</t>
-  </si>
-  <si>
-    <t>LearningCourse23534</t>
-  </si>
-  <si>
-    <t>CourseDesigner66366</t>
-  </si>
-  <si>
-    <t>LearningCourse17407</t>
-  </si>
-  <si>
-    <t>CourseDesigner92640</t>
-  </si>
-  <si>
-    <t>LearningCourse96364</t>
-  </si>
-  <si>
-    <t>CourseDesigner16229</t>
-  </si>
-  <si>
-    <t>LearningCourse44276</t>
-  </si>
-  <si>
-    <t>LearningCourse68983</t>
-  </si>
-  <si>
-    <t>CourseDesigner70039</t>
-  </si>
-  <si>
-    <t>LearningCourse45781</t>
-  </si>
-  <si>
-    <t>CourseDesigner97893</t>
-  </si>
-  <si>
-    <t>LearningCourse84611</t>
-  </si>
-  <si>
-    <t>LearningCourse65408</t>
-  </si>
-  <si>
-    <t>CourseDesigner50710</t>
-  </si>
-  <si>
-    <t>LearningCourse18039</t>
-  </si>
-  <si>
-    <t>CourseDesigner74655</t>
-  </si>
-  <si>
-    <t>LearningCourse87595</t>
-  </si>
-  <si>
-    <t>LearningCourse88629</t>
-  </si>
-  <si>
-    <t>LearningCourse27367</t>
-  </si>
-  <si>
-    <t>CourseDesigner74088</t>
-  </si>
-  <si>
-    <t>CourseDesigner63758</t>
-  </si>
-  <si>
-    <t>LearningCourse9719</t>
-  </si>
-  <si>
-    <t>CourseDesigner38912</t>
-  </si>
-  <si>
-    <t>CourseDesigner55552</t>
-  </si>
-  <si>
-    <t>LearningCourse35779</t>
-  </si>
-  <si>
-    <t>CourseDesigner99554</t>
-  </si>
-  <si>
-    <t>CourseDesigner38480</t>
-  </si>
-  <si>
-    <t>CourseDesigner59539</t>
-  </si>
-  <si>
-    <t>CourseDesigner47637</t>
-  </si>
-  <si>
-    <t>CourseDesigner26610</t>
-  </si>
-  <si>
-    <t>CourseDesigner95351</t>
-  </si>
-  <si>
-    <t>CourseDesigner58278</t>
-  </si>
-  <si>
-    <t>CourseDesigner57274</t>
-  </si>
-  <si>
-    <t>LearningCourse97124</t>
-  </si>
-  <si>
-    <t>CourseDesigner7955</t>
-  </si>
-  <si>
-    <t>CourseDesigner67184</t>
-  </si>
-  <si>
-    <t>LearningCourse47483</t>
-  </si>
-  <si>
-    <t>CourseDesigner6238</t>
-  </si>
-  <si>
-    <t>LearningCourse61208</t>
-  </si>
-  <si>
-    <t>CourseDesigner8810</t>
-  </si>
-  <si>
-    <t>LearningCourse53345</t>
-  </si>
-  <si>
-    <t>CourseDesigner85180</t>
-  </si>
-  <si>
-    <t>LearningCourse32445</t>
-  </si>
-  <si>
-    <t>CourseDesigner94437</t>
-  </si>
-  <si>
-    <t>CourseDesigner20457</t>
-  </si>
-  <si>
-    <t>CourseDesigner61777</t>
-  </si>
-  <si>
-    <t>CourseDesigner99126</t>
-  </si>
-  <si>
-    <t>LearningCourse3395</t>
-  </si>
-  <si>
-    <t>CourseDesigner40081</t>
-  </si>
-  <si>
-    <t>LearningCourse39214</t>
-  </si>
-  <si>
-    <t>CourseDesigner55141</t>
-  </si>
-  <si>
-    <t>LearningCourse93602</t>
-  </si>
-  <si>
-    <t>CourseDesigner26777</t>
-  </si>
-  <si>
-    <t>CourseDesigner10798</t>
-  </si>
-  <si>
-    <t>LearningCourse31587</t>
-  </si>
-  <si>
-    <t>CourseDesigner23581</t>
-  </si>
-  <si>
-    <t>LearningCourse61082</t>
-  </si>
-  <si>
-    <t>CourseDesigner15855</t>
-  </si>
-  <si>
-    <t>LearningCourse93749</t>
-  </si>
-  <si>
-    <t>CourseDesigner4113</t>
-  </si>
-  <si>
-    <t>LearningCourse45635</t>
-  </si>
-  <si>
-    <t>CourseDesigner23657</t>
-  </si>
-  <si>
-    <t>LearningCourse28542</t>
-  </si>
-  <si>
-    <t>CourseDesigner68391</t>
-  </si>
-  <si>
-    <t>CourseDesigner72468</t>
-  </si>
-  <si>
-    <t>CourseDesigner54915</t>
-  </si>
-  <si>
-    <t>LearningCourse60455</t>
-  </si>
-  <si>
-    <t>CourseDesigner20731</t>
-  </si>
-  <si>
-    <t>LearningCourse46783</t>
-  </si>
-  <si>
-    <t>CourseDesigner81896</t>
-  </si>
-  <si>
-    <t>LearningCourse21319</t>
-  </si>
-  <si>
-    <t>CourseDesigner46057</t>
-  </si>
-  <si>
-    <t>LearningCourse6336</t>
-  </si>
-  <si>
-    <t>CourseDesigner70279</t>
-  </si>
-  <si>
-    <t>LearningCourse44064</t>
-  </si>
-  <si>
-    <t>CourseDesigner99058</t>
-  </si>
-  <si>
-    <t>LearningCourse85420</t>
-  </si>
-  <si>
-    <t>CourseDesigner1667</t>
-  </si>
-  <si>
-    <t>CourseDesigner86549</t>
-  </si>
-  <si>
-    <t>CourseDesigner42635</t>
-  </si>
-  <si>
-    <t>LearningCourse79234</t>
-  </si>
-  <si>
-    <t>CourseDesigner30475</t>
-  </si>
-  <si>
-    <t>LearningCourse18772</t>
-  </si>
-  <si>
-    <t>CourseDesigner86993</t>
-  </si>
-  <si>
-    <t>CourseDesigner65610</t>
-  </si>
-  <si>
-    <t>LearningCourse88742</t>
-  </si>
-  <si>
-    <t>CourseDesigner32802</t>
-  </si>
-  <si>
-    <t>LearningCourse39270</t>
-  </si>
-  <si>
-    <t>LearningCourse80642</t>
-  </si>
-  <si>
-    <t>LearningCourse24490</t>
+    <t>CourseDesigner1009</t>
+  </si>
+  <si>
+    <t>LearningCourse43289</t>
+  </si>
+  <si>
+    <t>CourseDesigner48885</t>
+  </si>
+  <si>
+    <t>CourseDesigner51744</t>
+  </si>
+  <si>
+    <t>LearningCourse3671</t>
+  </si>
+  <si>
+    <t>CourseDesigner17833</t>
+  </si>
+  <si>
+    <t>LearningCourse9974</t>
+  </si>
+  <si>
+    <t>CourseDesigner55281</t>
+  </si>
+  <si>
+    <t>LearningCourse50526</t>
+  </si>
+  <si>
+    <t>CourseDesigner5261</t>
+  </si>
+  <si>
+    <t>LearningCourse78056</t>
+  </si>
+  <si>
+    <t>CourseDesigner89417</t>
+  </si>
+  <si>
+    <t>LearningCourse72630</t>
+  </si>
+  <si>
+    <t>CourseDesigner88954</t>
+  </si>
+  <si>
+    <t>CourseDesigner90725</t>
+  </si>
+  <si>
+    <t>LearningCourse9387</t>
+  </si>
+  <si>
+    <t>CourseDesigner5467</t>
+  </si>
+  <si>
+    <t>LearningCourse16656</t>
+  </si>
+  <si>
+    <t>CourseDesigner33200</t>
+  </si>
+  <si>
+    <t>LearningCourse5507</t>
+  </si>
+  <si>
+    <t>CourseDesigner99498</t>
+  </si>
+  <si>
+    <t>LearningCourse30314</t>
+  </si>
+  <si>
+    <t>CourseDesigner84272</t>
+  </si>
+  <si>
+    <t>LearningCourse41381</t>
+  </si>
+  <si>
+    <t>CourseDesigner12538</t>
+  </si>
+  <si>
+    <t>CourseDesigner39144</t>
+  </si>
+  <si>
+    <t>LearningCourse81533</t>
+  </si>
+  <si>
+    <t>CourseDesigner67109</t>
+  </si>
+  <si>
+    <t>LearningCourse62806</t>
   </si>
 </sst>
 </file>
@@ -766,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,399 +433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1605,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,28 +872,28 @@
         <v>22</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="12">
         <v>1323</v>
@@ -1696,11 +910,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="175">
-        <v>190</v>
-      </c>
-      <c r="L2" t="s" s="178">
-        <v>193</v>
+      <c r="K2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1715,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="12">
         <v>1323</v>
@@ -1737,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="17">
         <v>1323</v>
@@ -1759,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="17">
         <v>1323</v>
@@ -1797,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,6 +1024,7 @@
     <col min="5" max="5" customWidth="true" style="1" width="23.77734375"/>
     <col min="7" max="7" customWidth="true" width="11.5546875"/>
     <col min="8" max="8" customWidth="true" style="1" width="38.44140625"/>
+    <col min="10" max="10" customWidth="true" width="18.33203125"/>
     <col min="11" max="11" customWidth="true" width="25.21875"/>
     <col min="12" max="12" customWidth="true" width="20.77734375"/>
     <col min="13" max="13" customWidth="true" width="18.33203125"/>
@@ -1847,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="M1" s="9"/>
     </row>
@@ -1883,10 +1098,14 @@
         <v>2024</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="K2" t="s" s="46">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s" s="47">
+        <v>62</v>
+      </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>FirstName</t>
   </si>
@@ -210,6 +210,99 @@
   </si>
   <si>
     <t>LearningCourse62806</t>
+  </si>
+  <si>
+    <t>LearningCourse85388</t>
+  </si>
+  <si>
+    <t>CourseDesigner33199</t>
+  </si>
+  <si>
+    <t>CourseDesigner90565</t>
+  </si>
+  <si>
+    <t>LearningCourse16331</t>
+  </si>
+  <si>
+    <t>LearningCourse7092</t>
+  </si>
+  <si>
+    <t>LearningCourse83436</t>
+  </si>
+  <si>
+    <t>LearningCourse76170</t>
+  </si>
+  <si>
+    <t>CourseDesigner37205</t>
+  </si>
+  <si>
+    <t>LearningCourse4945</t>
+  </si>
+  <si>
+    <t>CourseDesigner23692</t>
+  </si>
+  <si>
+    <t>LearningCourse67576</t>
+  </si>
+  <si>
+    <t>LearningCourse18179</t>
+  </si>
+  <si>
+    <t>LearningCourse33665</t>
+  </si>
+  <si>
+    <t>CourseDesigner49754</t>
+  </si>
+  <si>
+    <t>LearningCourse85870</t>
+  </si>
+  <si>
+    <t>LearningCourse1814</t>
+  </si>
+  <si>
+    <t>LearningCourse52809</t>
+  </si>
+  <si>
+    <t>LearningCourse94095</t>
+  </si>
+  <si>
+    <t>LearningCourse94880</t>
+  </si>
+  <si>
+    <t>LearningCourse61439</t>
+  </si>
+  <si>
+    <t>LearningCourse62876</t>
+  </si>
+  <si>
+    <t>CourseDesigner57510</t>
+  </si>
+  <si>
+    <t>CourseDesigner47766</t>
+  </si>
+  <si>
+    <t>LearningCourse14429</t>
+  </si>
+  <si>
+    <t>CourseDesigner99542</t>
+  </si>
+  <si>
+    <t>CourseDesigner32161</t>
+  </si>
+  <si>
+    <t>LearningCourse65138</t>
+  </si>
+  <si>
+    <t>CourseDesigner67344</t>
+  </si>
+  <si>
+    <t>CourseDesigner49287</t>
+  </si>
+  <si>
+    <t>CourseDesigner86408</t>
+  </si>
+  <si>
+    <t>LearningCourse26984</t>
   </si>
 </sst>
 </file>
@@ -373,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +526,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -910,11 +1096,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>35</v>
+      <c r="K2" t="s" s="77">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s" s="78">
+        <v>93</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1100,11 +1286,11 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="46">
-        <v>61</v>
-      </c>
-      <c r="L2" t="s" s="47">
-        <v>62</v>
+      <c r="K2" t="s" s="57">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s" s="59">
+        <v>74</v>
       </c>
       <c r="M2" s="3"/>
     </row>

--- a/src/test/resources/ExcelFiles/LearningTree.xlsx
+++ b/src/test/resources/ExcelFiles/LearningTree.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>FirstName</t>
   </si>
@@ -303,6 +303,42 @@
   </si>
   <si>
     <t>LearningCourse26984</t>
+  </si>
+  <si>
+    <t>CourseDesigner34205</t>
+  </si>
+  <si>
+    <t>LearningCourse25337</t>
+  </si>
+  <si>
+    <t>CourseDesigner50026</t>
+  </si>
+  <si>
+    <t>LearningCourse84958</t>
+  </si>
+  <si>
+    <t>CourseDesigner17304</t>
+  </si>
+  <si>
+    <t>LearningCourse20882</t>
+  </si>
+  <si>
+    <t>CourseDesigner6439</t>
+  </si>
+  <si>
+    <t>LearningCourse11526</t>
+  </si>
+  <si>
+    <t>CourseDesigner78714</t>
+  </si>
+  <si>
+    <t>LearningCourse79545</t>
+  </si>
+  <si>
+    <t>CourseDesigner39088</t>
+  </si>
+  <si>
+    <t>LearningCourse18360</t>
   </si>
 </sst>
 </file>
@@ -466,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +562,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1096,11 +1168,11 @@
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s" s="77">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s" s="78">
-        <v>93</v>
+      <c r="K2" t="s" s="89">
+        <v>104</v>
+      </c>
+      <c r="L2" t="s" s="90">
+        <v>105</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
